--- a/lab1/lab1.xlsx
+++ b/lab1/lab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\university\kurs3.1\SATPR\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C0378-1605-45E0-86B1-C53EE903034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF32F1-8F3F-46B7-9B45-6F31134DFDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,12 +157,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -188,6 +194,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -470,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="72" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,38 +631,39 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
@@ -944,10 +958,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
+      <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <f t="shared" si="8"/>
         <v>24.217468805704101</v>
       </c>
